--- a/TestDesignStuctureDev2/Data/StageData.xlsx
+++ b/TestDesignStuctureDev2/Data/StageData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조용한 숲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Resources/Stage/Stage01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +88,38 @@
   </si>
   <si>
     <t>Resources/Stage/Stage05</t>
+  </si>
+  <si>
+    <t>audio_BPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8bit-rebirth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안 조용한 숲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -442,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -453,12 +481,13 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +500,17 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -485,8 +523,17 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -499,8 +546,17 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -508,66 +564,111 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>110</v>
+      </c>
+      <c r="G4">
+        <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
